--- a/BackTest/2019-10-26 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-26 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J3" t="n">
+        <v>182</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="J4" t="n">
+        <v>182</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +562,21 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>184</v>
-      </c>
-      <c r="K5" t="n">
-        <v>184</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,286 +603,227 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>184</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>182</v>
+      </c>
+      <c r="C7" t="n">
+        <v>182</v>
+      </c>
+      <c r="D7" t="n">
+        <v>182</v>
+      </c>
+      <c r="E7" t="n">
+        <v>182</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1984.4341</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1402244.508625559</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>182</v>
+      </c>
+      <c r="E8" t="n">
+        <v>181</v>
+      </c>
+      <c r="F8" t="n">
+        <v>627.5469000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1401616.961725559</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>180</v>
+      </c>
+      <c r="C9" t="n">
+        <v>180</v>
+      </c>
+      <c r="D9" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" t="n">
+        <v>180</v>
+      </c>
+      <c r="F9" t="n">
+        <v>209</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1401407.961725559</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>183</v>
+      </c>
+      <c r="E10" t="n">
+        <v>183</v>
+      </c>
+      <c r="F10" t="n">
+        <v>423</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1401830.961725559</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>180</v>
+      </c>
+      <c r="J10" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>183</v>
+      </c>
+      <c r="C11" t="n">
+        <v>183</v>
+      </c>
+      <c r="D11" t="n">
+        <v>183</v>
+      </c>
+      <c r="E11" t="n">
+        <v>183</v>
+      </c>
+      <c r="F11" t="n">
+        <v>204</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1401830.961725559</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>180</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>182</v>
-      </c>
-      <c r="C7" t="n">
-        <v>182</v>
-      </c>
-      <c r="D7" t="n">
-        <v>182</v>
-      </c>
-      <c r="E7" t="n">
-        <v>182</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1984.4341</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1402244.508625559</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>184</v>
-      </c>
-      <c r="K7" t="n">
-        <v>184</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>184</v>
+      </c>
+      <c r="C12" t="n">
+        <v>184</v>
+      </c>
+      <c r="D12" t="n">
+        <v>184</v>
+      </c>
+      <c r="E12" t="n">
+        <v>184</v>
+      </c>
+      <c r="F12" t="n">
+        <v>681.5489</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1402512.510625559</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>180</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>182</v>
-      </c>
-      <c r="C8" t="n">
-        <v>181</v>
-      </c>
-      <c r="D8" t="n">
-        <v>182</v>
-      </c>
-      <c r="E8" t="n">
-        <v>181</v>
-      </c>
-      <c r="F8" t="n">
-        <v>627.5469000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1401616.961725559</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>182</v>
-      </c>
-      <c r="K8" t="n">
-        <v>184</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>180</v>
-      </c>
-      <c r="C9" t="n">
-        <v>180</v>
-      </c>
-      <c r="D9" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" t="n">
-        <v>180</v>
-      </c>
-      <c r="F9" t="n">
-        <v>209</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1401407.961725559</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>181</v>
-      </c>
-      <c r="K9" t="n">
-        <v>184</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>183</v>
-      </c>
-      <c r="C10" t="n">
-        <v>183</v>
-      </c>
-      <c r="D10" t="n">
-        <v>183</v>
-      </c>
-      <c r="E10" t="n">
-        <v>183</v>
-      </c>
-      <c r="F10" t="n">
-        <v>423</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1401830.961725559</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>180</v>
-      </c>
-      <c r="K10" t="n">
-        <v>184</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>183</v>
-      </c>
-      <c r="C11" t="n">
-        <v>183</v>
-      </c>
-      <c r="D11" t="n">
-        <v>183</v>
-      </c>
-      <c r="E11" t="n">
-        <v>183</v>
-      </c>
-      <c r="F11" t="n">
-        <v>204</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1401830.961725559</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>183</v>
-      </c>
-      <c r="K11" t="n">
-        <v>184</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>184</v>
-      </c>
-      <c r="C12" t="n">
-        <v>184</v>
-      </c>
-      <c r="D12" t="n">
-        <v>184</v>
-      </c>
-      <c r="E12" t="n">
-        <v>184</v>
-      </c>
-      <c r="F12" t="n">
-        <v>681.5489</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1402512.510625559</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>183</v>
-      </c>
-      <c r="K12" t="n">
-        <v>184</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,26 +848,15 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>184</v>
-      </c>
-      <c r="K13" t="n">
-        <v>184</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,26 +881,15 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>183</v>
-      </c>
-      <c r="K14" t="n">
-        <v>184</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,26 +914,15 @@
         <v>1400225.763725559</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>183</v>
-      </c>
-      <c r="K15" t="n">
-        <v>184</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,22 +949,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>184</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,22 +982,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>184</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,22 +1015,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>184</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1170,22 +1048,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>184</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,22 +1081,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>184</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1254,22 +1114,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>184</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1296,22 +1147,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>184</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,22 +1180,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>184</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1380,22 +1213,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>184</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1246,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>184</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,22 +1279,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>184</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1312,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>184</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1548,22 +1345,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>184</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1590,22 +1378,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>184</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,22 +1411,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>184</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1674,22 +1444,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>184</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1716,22 +1477,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>184</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,22 +1510,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>184</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1.000434782608696</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1800,16 +1543,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,16 +1576,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1872,16 +1609,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1906,18 +1640,15 @@
         <v>1379366.841425559</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1944,16 +1675,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1978,18 +1706,15 @@
         <v>1384338.503225559</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2016,16 +1741,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2052,16 +1774,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2088,16 +1807,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2124,16 +1840,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,16 +1873,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2196,16 +1906,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2232,16 +1939,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2268,16 +1972,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,16 +2005,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2340,16 +2038,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2374,18 +2069,15 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2412,16 +2104,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2448,16 +2137,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2484,16 +2170,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,16 +2203,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2556,16 +2236,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2590,18 +2267,15 @@
         <v>1374546.766325559</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2626,18 +2300,15 @@
         <v>1374546.766325559</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2664,16 +2335,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2698,18 +2366,15 @@
         <v>1371052.429325559</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,18 +2399,15 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2770,18 +2432,15 @@
         <v>1371054.429325559</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2808,16 +2467,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2842,18 +2498,15 @@
         <v>1370801.880225559</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2880,16 +2533,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2914,18 +2564,15 @@
         <v>1370301.880225559</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2952,16 +2599,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2986,18 +2630,15 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,18 +2663,15 @@
         <v>1377232.545603859</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3058,18 +2696,15 @@
         <v>1377233.545603859</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3096,16 +2731,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3130,18 +2762,15 @@
         <v>1377192.243703859</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3166,18 +2795,15 @@
         <v>1377151.060803859</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3202,18 +2828,15 @@
         <v>1377152.060803859</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3240,16 +2863,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3276,16 +2896,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3312,16 +2929,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3348,16 +2962,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3384,16 +2995,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3420,16 +3028,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3456,16 +3061,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3492,16 +3094,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3528,16 +3127,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3564,16 +3160,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3600,16 +3193,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3636,16 +3226,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3670,18 +3257,15 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3706,18 +3290,15 @@
         <v>1390613.8336411</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3742,18 +3323,15 @@
         <v>1384582.3326411</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3778,18 +3356,15 @@
         <v>1383637.7244411</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3816,16 +3391,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3852,16 +3424,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3888,16 +3457,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3924,16 +3490,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3960,16 +3523,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3996,16 +3556,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4032,16 +3589,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4068,16 +3622,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4104,16 +3655,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4140,16 +3688,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4176,16 +3721,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4212,16 +3754,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4248,16 +3787,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4284,18 +3820,15 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-26 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>182</v>
@@ -521,7 +521,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>183</v>
@@ -733,14 +733,10 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>180</v>
-      </c>
-      <c r="J10" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -773,14 +769,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>180</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -812,14 +802,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>180</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -1640,7 +1624,7 @@
         <v>1379366.841425559</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1706,7 +1690,7 @@
         <v>1384338.503225559</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2069,7 +2053,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2267,7 +2251,7 @@
         <v>1374546.766325559</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2300,7 +2284,7 @@
         <v>1374546.766325559</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2333,7 +2317,7 @@
         <v>1371052.429325559</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2366,7 +2350,7 @@
         <v>1371052.429325559</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2399,7 +2383,7 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2432,7 +2416,7 @@
         <v>1371054.429325559</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2465,7 +2449,7 @@
         <v>1370800.880225559</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2498,7 +2482,7 @@
         <v>1370801.880225559</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2531,7 +2515,7 @@
         <v>1370801.880225559</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2564,7 +2548,7 @@
         <v>1370301.880225559</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2597,7 +2581,7 @@
         <v>1373402.281525559</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2630,7 +2614,7 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2663,7 +2647,7 @@
         <v>1377232.545603859</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2696,7 +2680,7 @@
         <v>1377233.545603859</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2729,7 +2713,7 @@
         <v>1377185.954103859</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2762,7 +2746,7 @@
         <v>1377192.243703859</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2795,7 +2779,7 @@
         <v>1377151.060803859</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2828,7 +2812,7 @@
         <v>1377152.060803859</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3257,7 +3241,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3290,7 +3274,7 @@
         <v>1390613.8336411</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3323,7 +3307,7 @@
         <v>1384582.3326411</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3356,7 +3340,7 @@
         <v>1383637.7244411</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3389,7 +3373,7 @@
         <v>1383659.1780411</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3422,7 +3406,7 @@
         <v>1383659.1780411</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3455,7 +3439,7 @@
         <v>1386291.53893691</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3488,7 +3472,7 @@
         <v>1383892.178236909</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3521,7 +3505,7 @@
         <v>1383890.758436909</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3554,7 +3538,7 @@
         <v>1383892.754436909</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3587,7 +3571,7 @@
         <v>1383839.246236909</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3653,7 +3637,7 @@
         <v>1383839.246236909</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3719,7 +3703,7 @@
         <v>1383894.62063691</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3752,7 +3736,7 @@
         <v>1383534.64103691</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3818,7 +3802,7 @@
         <v>1383053.19983691</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3829,6 +3813,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-26 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>182</v>
-      </c>
-      <c r="J3" t="n">
-        <v>182</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>183</v>
-      </c>
-      <c r="J4" t="n">
-        <v>182</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>182</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,7 +583,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +616,7 @@
         <v>1402244.508625559</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -667,7 +649,7 @@
         <v>1401616.961725559</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -700,7 +682,7 @@
         <v>1401407.961725559</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +715,7 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -799,7 +781,7 @@
         <v>1402512.510625559</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -832,7 +814,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -865,7 +847,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -2317,7 +2299,7 @@
         <v>1371052.429325559</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2383,10 +2365,14 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>178</v>
+      </c>
+      <c r="J60" t="n">
+        <v>178</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2419,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>178</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2441,17 @@
         <v>1370800.880225559</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>178</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>1370801.880225559</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2513,7 @@
         <v>1370801.880225559</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2546,7 @@
         <v>1370301.880225559</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2579,7 @@
         <v>1373402.281525559</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,11 +2612,17 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>181</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2651,15 @@
         <v>1377232.545603859</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2692,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2725,15 @@
         <v>1377185.954103859</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2766,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2783,7 +2803,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +2840,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +2877,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2882,7 +2914,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,7 +2951,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +2988,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,7 +3025,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3014,7 +3062,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3047,7 +3099,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3080,7 +3136,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3113,7 +3173,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3210,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3247,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +3284,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,7 +3321,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3278,7 +3358,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3311,7 +3395,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +3428,15 @@
         <v>1383637.7244411</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3465,15 @@
         <v>1383659.1780411</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3502,15 @@
         <v>1383659.1780411</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3539,15 @@
         <v>1386291.53893691</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3576,15 @@
         <v>1383892.178236909</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3613,15 @@
         <v>1383890.758436909</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3650,15 @@
         <v>1383892.754436909</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3687,15 @@
         <v>1383839.246236909</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3728,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3761,15 @@
         <v>1383839.246236909</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3674,7 +3802,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3703,11 +3835,15 @@
         <v>1383894.62063691</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3872,15 @@
         <v>1383534.64103691</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,7 +3913,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3802,17 +3946,21 @@
         <v>1383053.19983691</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-26 BackTest STEEM.xlsx
@@ -451,7 +451,7 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>182</v>
+      </c>
+      <c r="J3" t="n">
+        <v>182</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>183</v>
+      </c>
+      <c r="J4" t="n">
+        <v>182</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>182</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +601,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +634,7 @@
         <v>1402244.508625559</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +667,7 @@
         <v>1401616.961725559</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +700,7 @@
         <v>1401407.961725559</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +733,7 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +799,7 @@
         <v>1402512.510625559</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +832,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +865,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1474,7 +1492,7 @@
         <v>1395037.01832556</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1738,7 +1756,7 @@
         <v>1384338.503225559</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1822,7 @@
         <v>1384332.503225559</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1888,7 @@
         <v>1384626.90442556</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1954,7 @@
         <v>1384626.90442556</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1987,7 @@
         <v>1387983.58752556</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2020,7 @@
         <v>1387984.58752556</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2053,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2086,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2119,7 @@
         <v>1384102.204925559</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2152,7 @@
         <v>1373524.508525559</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2185,7 @@
         <v>1375570.467525559</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2218,7 @@
         <v>1375570.467525559</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,14 +2383,10 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>178</v>
-      </c>
-      <c r="J60" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2405,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>178</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>178</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2612,17 +2614,11 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2655,11 +2651,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2692,11 +2684,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2717,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2766,11 +2750,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2783,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2840,11 +2816,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2877,11 +2849,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2914,11 +2882,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2951,11 +2915,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2988,11 +2948,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +2981,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3062,11 +3014,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3095,15 +3043,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3132,15 +3076,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3169,15 +3109,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3206,15 +3142,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3243,15 +3175,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3280,15 +3208,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3317,15 +3241,11 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3354,15 +3274,11 @@
         <v>1390613.8336411</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3391,15 +3307,11 @@
         <v>1384582.3326411</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3432,11 +3344,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3469,11 +3377,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3506,11 +3410,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3443,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3580,11 +3476,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3509,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3654,11 +3542,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3691,11 +3575,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3728,11 +3608,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +3641,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3674,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3707,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3876,11 +3740,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3913,11 +3773,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3950,11 +3806,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-26 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>692.9914</v>
       </c>
       <c r="G2" t="n">
-        <v>1391679.884810249</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>5820.48731531</v>
       </c>
       <c r="G3" t="n">
-        <v>1397500.372125559</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="I3" t="n">
         <v>182</v>
       </c>
-      <c r="J3" t="n">
-        <v>182</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>6728.5706</v>
       </c>
       <c r="G4" t="n">
-        <v>1404228.942725559</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="I4" t="n">
-        <v>183</v>
-      </c>
-      <c r="J4" t="n">
-        <v>182</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>182</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>1404228.942725559</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>182</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>182</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +581,19 @@
         <v>60.9021</v>
       </c>
       <c r="G6" t="n">
-        <v>1404228.942725559</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I6" t="n">
+        <v>184</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +615,23 @@
         <v>1984.4341</v>
       </c>
       <c r="G7" t="n">
-        <v>1402244.508625559</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I7" t="n">
+        <v>184</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +653,23 @@
         <v>627.5469000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1401616.961725559</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="I8" t="n">
+        <v>184</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +691,23 @@
         <v>209</v>
       </c>
       <c r="G9" t="n">
-        <v>1401407.961725559</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="I9" t="n">
+        <v>184</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +729,23 @@
         <v>423</v>
       </c>
       <c r="G10" t="n">
-        <v>1401830.961725559</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="I10" t="n">
+        <v>184</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +767,23 @@
         <v>204</v>
       </c>
       <c r="G11" t="n">
-        <v>1401830.961725559</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +805,23 @@
         <v>681.5489</v>
       </c>
       <c r="G12" t="n">
-        <v>1402512.510625559</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I12" t="n">
+        <v>184</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +843,21 @@
         <v>2287.7469</v>
       </c>
       <c r="G13" t="n">
-        <v>1400224.763725559</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>184</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +879,21 @@
         <v>415.4224</v>
       </c>
       <c r="G14" t="n">
-        <v>1400224.763725559</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>184</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +915,21 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1400225.763725559</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>184</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +951,23 @@
         <v>170.3087</v>
       </c>
       <c r="G16" t="n">
-        <v>1400396.072425559</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I16" t="n">
+        <v>184</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +989,21 @@
         <v>206.8702</v>
       </c>
       <c r="G17" t="n">
-        <v>1400396.072425559</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>184</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +1025,21 @@
         <v>0.6913</v>
       </c>
       <c r="G18" t="n">
-        <v>1400395.381125559</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>184</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +1061,21 @@
         <v>191.8584</v>
       </c>
       <c r="G19" t="n">
-        <v>1400203.522725559</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>184</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +1097,23 @@
         <v>271.7435</v>
       </c>
       <c r="G20" t="n">
-        <v>1400475.266225559</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I20" t="n">
+        <v>184</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1135,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1400476.266225559</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>184</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1171,21 @@
         <v>115.0432</v>
       </c>
       <c r="G22" t="n">
-        <v>1400476.266225559</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>184</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1207,21 @@
         <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>1400457.266225559</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>184</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1243,21 @@
         <v>123.284</v>
       </c>
       <c r="G24" t="n">
-        <v>1400457.266225559</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>184</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1279,21 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1400458.266225559</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>184</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1315,21 @@
         <v>2863.5023</v>
       </c>
       <c r="G26" t="n">
-        <v>1397594.763925559</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>184</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1351,21 @@
         <v>5434.7826</v>
       </c>
       <c r="G27" t="n">
-        <v>1403029.546525559</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>184</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1387,21 @@
         <v>1199.1509</v>
       </c>
       <c r="G28" t="n">
-        <v>1403029.546525559</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>184</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1423,21 @@
         <v>8765.5996</v>
       </c>
       <c r="G29" t="n">
-        <v>1394263.946925559</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>184</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1459,21 @@
         <v>1798.694</v>
       </c>
       <c r="G30" t="n">
-        <v>1394263.946925559</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>184</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1495,21 @@
         <v>1293.3075</v>
       </c>
       <c r="G31" t="n">
-        <v>1395557.254425559</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>184</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1531,21 @@
         <v>327.1371</v>
       </c>
       <c r="G32" t="n">
-        <v>1395230.117325559</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>184</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1567,21 @@
         <v>193.099</v>
       </c>
       <c r="G33" t="n">
-        <v>1395037.01832556</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>184</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1.000434782608696</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1603,15 @@
         <v>9667.1769</v>
       </c>
       <c r="G34" t="n">
-        <v>1385369.841425559</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1633,15 @@
         <v>6003</v>
       </c>
       <c r="G35" t="n">
-        <v>1379366.841425559</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1663,19 @@
         <v>300</v>
       </c>
       <c r="G36" t="n">
-        <v>1379366.841425559</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I36" t="n">
+        <v>183</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1697,23 @@
         <v>1938.7581</v>
       </c>
       <c r="G37" t="n">
-        <v>1379366.841425559</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I37" t="n">
+        <v>183</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1735,23 @@
         <v>4970.6618</v>
       </c>
       <c r="G38" t="n">
-        <v>1384337.503225559</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="I38" t="n">
+        <v>183</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1773,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1384338.503225559</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1803,15 @@
         <v>667.761</v>
       </c>
       <c r="G40" t="n">
-        <v>1384338.503225559</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1833,15 @@
         <v>4921.5865</v>
       </c>
       <c r="G41" t="n">
-        <v>1384338.503225559</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1863,15 @@
         <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>1384332.503225559</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1893,15 @@
         <v>2.8702</v>
       </c>
       <c r="G43" t="n">
-        <v>1384332.503225559</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1923,15 @@
         <v>15.2439</v>
       </c>
       <c r="G44" t="n">
-        <v>1384317.259325559</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +1953,15 @@
         <v>309.6451</v>
       </c>
       <c r="G45" t="n">
-        <v>1384626.90442556</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +1983,15 @@
         <v>207.977</v>
       </c>
       <c r="G46" t="n">
-        <v>1384626.90442556</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +2013,15 @@
         <v>5.985</v>
       </c>
       <c r="G47" t="n">
-        <v>1384626.90442556</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +2043,15 @@
         <v>3356.6831</v>
       </c>
       <c r="G48" t="n">
-        <v>1387983.58752556</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +2073,15 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1387984.58752556</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +2103,15 @@
         <v>3224.6998</v>
       </c>
       <c r="G50" t="n">
-        <v>1384759.88772556</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +2133,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1384759.88772556</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +2163,15 @@
         <v>657.6828</v>
       </c>
       <c r="G52" t="n">
-        <v>1384102.204925559</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +2193,15 @@
         <v>10577.6964</v>
       </c>
       <c r="G53" t="n">
-        <v>1373524.508525559</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2223,15 @@
         <v>2045.959</v>
       </c>
       <c r="G54" t="n">
-        <v>1375570.467525559</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2253,15 @@
         <v>10501</v>
       </c>
       <c r="G55" t="n">
-        <v>1375570.467525559</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2283,15 @@
         <v>1023.7012</v>
       </c>
       <c r="G56" t="n">
-        <v>1374546.766325559</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2313,15 @@
         <v>1371.6193</v>
       </c>
       <c r="G57" t="n">
-        <v>1374546.766325559</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2343,15 @@
         <v>3494.337</v>
       </c>
       <c r="G58" t="n">
-        <v>1371052.429325559</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2373,15 @@
         <v>1288.8832</v>
       </c>
       <c r="G59" t="n">
-        <v>1371052.429325559</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2403,15 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1371053.429325559</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2433,15 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1371054.429325559</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2463,15 @@
         <v>253.5491</v>
       </c>
       <c r="G62" t="n">
-        <v>1370800.880225559</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2493,15 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1370801.880225559</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2523,15 @@
         <v>5.3891</v>
       </c>
       <c r="G64" t="n">
-        <v>1370801.880225559</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2553,15 @@
         <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>1370301.880225559</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2583,21 @@
         <v>3100.4013</v>
       </c>
       <c r="G66" t="n">
-        <v>1373402.281525559</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2619,21 @@
         <v>5430.2640783</v>
       </c>
       <c r="G67" t="n">
-        <v>1378832.545603859</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2655,19 @@
         <v>1600</v>
       </c>
       <c r="G68" t="n">
-        <v>1377232.545603859</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2689,19 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1377233.545603859</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2723,19 @@
         <v>47.5915</v>
       </c>
       <c r="G70" t="n">
-        <v>1377185.954103859</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2757,19 @@
         <v>6.2896</v>
       </c>
       <c r="G71" t="n">
-        <v>1377192.243703859</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2791,19 @@
         <v>41.1829</v>
       </c>
       <c r="G72" t="n">
-        <v>1377151.060803859</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2825,19 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1377152.060803859</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2859,19 @@
         <v>129.2727</v>
       </c>
       <c r="G74" t="n">
-        <v>1377152.060803859</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2893,19 @@
         <v>4.6042</v>
       </c>
       <c r="G75" t="n">
-        <v>1377152.060803859</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2927,19 @@
         <v>10498.07354472</v>
       </c>
       <c r="G76" t="n">
-        <v>1387650.134348579</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2961,19 @@
         <v>318</v>
       </c>
       <c r="G77" t="n">
-        <v>1387650.134348579</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2995,19 @@
         <v>356.31617698</v>
       </c>
       <c r="G78" t="n">
-        <v>1388006.450525559</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +3029,19 @@
         <v>171.2135</v>
       </c>
       <c r="G79" t="n">
-        <v>1388006.450525559</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +3063,19 @@
         <v>2617.38311554</v>
       </c>
       <c r="G80" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +3097,17 @@
         <v>2952.0823</v>
       </c>
       <c r="G81" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +3129,15 @@
         <v>6205.9483</v>
       </c>
       <c r="G82" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,18 +3159,15 @@
         <v>5600.8683</v>
       </c>
       <c r="G83" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,18 +3189,15 @@
         <v>1559.4202</v>
       </c>
       <c r="G84" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,18 +3219,15 @@
         <v>1673.8652</v>
       </c>
       <c r="G85" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3238,18 +3249,15 @@
         <v>1243.5233</v>
       </c>
       <c r="G86" t="n">
-        <v>1390623.8336411</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,18 +3279,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>1390613.8336411</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,18 +3309,15 @@
         <v>6031.501</v>
       </c>
       <c r="G88" t="n">
-        <v>1384582.3326411</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3337,18 +3339,15 @@
         <v>944.6082</v>
       </c>
       <c r="G89" t="n">
-        <v>1383637.7244411</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3370,18 +3369,15 @@
         <v>21.4536</v>
       </c>
       <c r="G90" t="n">
-        <v>1383659.1780411</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3403,18 +3399,15 @@
         <v>1.946</v>
       </c>
       <c r="G91" t="n">
-        <v>1383659.1780411</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3436,18 +3429,15 @@
         <v>2632.36089581</v>
       </c>
       <c r="G92" t="n">
-        <v>1386291.53893691</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,18 +3459,15 @@
         <v>2399.3607</v>
       </c>
       <c r="G93" t="n">
-        <v>1383892.178236909</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3502,18 +3489,15 @@
         <v>1.4198</v>
       </c>
       <c r="G94" t="n">
-        <v>1383890.758436909</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3535,18 +3519,15 @@
         <v>1.996</v>
       </c>
       <c r="G95" t="n">
-        <v>1383892.754436909</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,18 +3549,15 @@
         <v>53.5082</v>
       </c>
       <c r="G96" t="n">
-        <v>1383839.246236909</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3601,18 +3579,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1383840.246236909</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,18 +3609,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1383839.246236909</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3667,18 +3639,15 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1383840.246236909</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,18 +3669,15 @@
         <v>54.3744</v>
       </c>
       <c r="G100" t="n">
-        <v>1383894.62063691</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3733,18 +3699,15 @@
         <v>359.9796</v>
       </c>
       <c r="G101" t="n">
-        <v>1383534.64103691</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3766,18 +3729,15 @@
         <v>481.4412</v>
       </c>
       <c r="G102" t="n">
-        <v>1383053.19983691</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,18 +3759,15 @@
         <v>658.7527</v>
       </c>
       <c r="G103" t="n">
-        <v>1383053.19983691</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
